--- a/250212_item_scale_info(origin).xlsx
+++ b/250212_item_scale_info(origin).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65505032-6AAC-46F1-A671-4AEDE2369A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE9828C-24B2-4C0E-8624-E49A7C390A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26D96E56-99D9-4C13-87C7-EAE8740F8D53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26D96E56-99D9-4C13-87C7-EAE8740F8D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="220">
   <si>
     <t>척도</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -483,10 +483,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SR51. 학습할 때 학생끼리 서로 돕는 것이 좋다고 생각한다.   SR52. 나는 다른 학생보다 더 잘하고 싶다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SR53. 나는 내가 다른 학생보다 더 좋은 점수를 받기 위해서 공부한다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -652,10 +648,6 @@
   </si>
   <si>
     <t>SR70. 부모님은 나를 거칠게 대한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR72. 부모님은 내가 잘못하면 바로 혼내신다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -920,6 +912,18 @@
   </si>
   <si>
     <t>TR10. 이 아이는 수업 시간에 기분이 좋아 보인다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR51. 학습할 때 학생끼리 서로 돕는 것이 좋다고 생각한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR52. 나는 다른 학생보다 더 잘하고 싶다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR71. 부모님은 내가 잘못하면 바로 혼내신다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1086,36 +1090,105 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,77 +1198,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE663D0-EE0F-4DA7-AAC8-FF7E94DD76AC}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1565,7 +1569,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1578,15 +1582,15 @@
         <v>7</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3">
+      <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1595,17 +1599,17 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="32"/>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1618,13 +1622,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="32"/>
       <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1637,13 +1641,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1656,13 +1660,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="32"/>
       <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1675,13 +1679,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="32"/>
       <c r="G7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1694,13 +1698,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="32"/>
       <c r="G8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1713,10 +1717,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1729,10 +1733,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1744,13 +1748,13 @@
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1762,11 +1766,11 @@
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1778,11 +1782,11 @@
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1794,11 +1798,11 @@
       <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1810,11 +1814,11 @@
       <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1826,2136 +1830,2152 @@
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11">
+      <c r="E17" s="6"/>
+      <c r="F17" s="35">
         <v>2</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="35"/>
       <c r="G18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="35"/>
       <c r="G19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="35"/>
       <c r="G20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="35"/>
       <c r="G21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="11"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="11"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="11"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="11"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="35"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="11"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="11"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17">
+      <c r="E45" s="9"/>
+      <c r="F45" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="26">
         <v>3</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="20"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
       <c r="G50" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="20"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
       <c r="G51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="20"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
       <c r="G52" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="20"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
       <c r="G53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="20"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="20"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="20"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="20"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="20"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="20"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="20"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="20"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="20"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
+      <c r="E67" s="27"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B68" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C68" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D68" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
+      <c r="E68" s="27"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B69" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C69" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D69" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="38" t="s">
+      <c r="E69" s="27"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B70" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C70" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D70" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
+      <c r="E70" s="27"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B71" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C71" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D71" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="20"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
+      <c r="E71" s="27"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B72" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C72" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D72" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+      <c r="E72" s="27"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B73" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C73" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D73" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="20"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
+      <c r="E73" s="27"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B74" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C74" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="20"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="20"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="20"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="20"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="20"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="20"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="20"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="20"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="18" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
+      <c r="B83" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="C83" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="D83" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="E83" s="13"/>
+      <c r="F83" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="26" t="s">
+      <c r="G83" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G82" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="38" t="s">
+      <c r="D84" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="28"/>
+      <c r="G84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" s="25" t="s">
+      <c r="C85" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
-      <c r="G83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="38" t="s">
+      <c r="D85" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="28"/>
+      <c r="G85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="25" t="s">
+      <c r="C86" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="26"/>
-      <c r="G84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="25" t="s">
+      <c r="D86" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="E86" s="13"/>
+      <c r="F86" s="28"/>
+      <c r="G86" t="s">
         <v>129</v>
       </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
-      <c r="G85" t="s">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="25" t="s">
+      <c r="C87" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="D87" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="E87" s="13"/>
+      <c r="F87" s="28"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="25" t="s">
+      <c r="D88" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="28"/>
+      <c r="G88" t="s">
         <v>131</v>
       </c>
-      <c r="C87" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="25" t="s">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="25" t="s">
+      <c r="C89" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="D89" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="E89" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="F89" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="G89" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G88" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="25" t="s">
+      <c r="E90" s="30"/>
+      <c r="F90" s="28"/>
+      <c r="G90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="26"/>
-      <c r="G89" t="s">
+      <c r="D91" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" s="25" t="s">
+      <c r="E91" s="30"/>
+      <c r="F91" s="28"/>
+      <c r="G91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="26"/>
-      <c r="G90" t="s">
+      <c r="D92" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B91" s="25" t="s">
+      <c r="E92" s="30"/>
+      <c r="F92" s="28"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="25" t="s">
+      <c r="D93" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="26"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="25" t="s">
+      <c r="E93" s="30"/>
+      <c r="F93" s="28"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="25" t="s">
+      <c r="D94" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="26"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="25" t="s">
+      <c r="E94" s="30"/>
+      <c r="F94" s="28"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D93" s="25" t="s">
+      <c r="D95" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="26"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="25" t="s">
+      <c r="E95" s="30"/>
+      <c r="F95" s="28"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" s="25" t="s">
+      <c r="D96" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="26"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="25" t="s">
+      <c r="E96" s="30"/>
+      <c r="F96" s="28"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" s="25" t="s">
+      <c r="D97" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="26"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="25" t="s">
+      <c r="E97" s="30"/>
+      <c r="F97" s="28"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D96" s="25" t="s">
+      <c r="D98" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E96" s="30"/>
-      <c r="F96" s="26"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="25" t="s">
+      <c r="E98" s="30"/>
+      <c r="F98" s="28"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D97" s="25" t="s">
+      <c r="D99" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E97" s="30"/>
-      <c r="F97" s="26"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="25" t="s">
+      <c r="E99" s="30"/>
+      <c r="F99" s="28"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D98" s="25" t="s">
+      <c r="D100" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E100" s="30"/>
+      <c r="F100" s="28"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="30"/>
-      <c r="F98" s="26"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="25" t="s">
+      <c r="E101" s="30"/>
+      <c r="F101" s="28"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C99" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="25" t="s">
+      <c r="D102" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E99" s="30"/>
-      <c r="F99" s="26"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="25" t="s">
+      <c r="E102" s="30"/>
+      <c r="F102" s="28"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C100" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D100" s="25" t="s">
+      <c r="D103" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="26"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="25" t="s">
+      <c r="E103" s="30"/>
+      <c r="F103" s="28"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C101" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D101" s="25" t="s">
+      <c r="D104" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="26"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D102" s="25" t="s">
+      <c r="E104" s="30"/>
+      <c r="F104" s="28"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="26"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" s="25" t="s">
+      <c r="C105" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="26"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="39" t="s">
+      <c r="E105" s="15"/>
+      <c r="F105" s="20">
+        <v>6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D104" s="31" t="s">
+      <c r="B106" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="32">
-        <v>6</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="C106" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="39" t="s">
+      <c r="E106" s="15"/>
+      <c r="F106" s="20"/>
+      <c r="G106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B105" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D105" s="31" t="s">
+      <c r="B107" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="32"/>
-      <c r="G105" t="s">
+      <c r="C107" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="39" t="s">
+      <c r="E107" s="15"/>
+      <c r="F107" s="20"/>
+      <c r="G107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D106" s="31" t="s">
+      <c r="B108" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="32"/>
-      <c r="G106" t="s">
+      <c r="C108" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="39" t="s">
+      <c r="E108" s="15"/>
+      <c r="F108" s="20"/>
+      <c r="G108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="31" t="s">
+      <c r="B109" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="32"/>
-      <c r="G107" t="s">
+      <c r="C109" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="31" t="s">
+      <c r="E109" s="15"/>
+      <c r="F109" s="20"/>
+      <c r="G109" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" s="31" t="s">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="32"/>
-      <c r="G108" t="s">
+      <c r="B110" s="16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="38" t="s">
+      <c r="C110" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="D110" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="E110" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="F110" s="23">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E111" s="22"/>
+      <c r="F111" s="23"/>
+      <c r="G111" t="s">
         <v>177</v>
       </c>
-      <c r="F109" s="36">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="22"/>
+      <c r="F112" s="23"/>
+      <c r="G112" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E113" s="22"/>
+      <c r="F113" s="23"/>
+      <c r="G113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E114" s="22"/>
+      <c r="F114" s="23"/>
+      <c r="G114" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E115" s="22"/>
+      <c r="F115" s="23"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E116" s="22"/>
+      <c r="F116" s="23"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E117" s="22"/>
+      <c r="F117" s="23"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="22"/>
+      <c r="F118" s="23"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E119" s="22"/>
+      <c r="F119" s="23"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="23"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E121" s="22"/>
+      <c r="F121" s="23"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" s="22"/>
+      <c r="F122" s="23"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" s="22"/>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E124" s="22"/>
+      <c r="F124" s="23"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="23"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126" s="22"/>
+      <c r="F126" s="23"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E127" s="22"/>
+      <c r="F127" s="23"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128" s="22"/>
+      <c r="F128" s="23"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E129" s="22"/>
+      <c r="F129" s="23"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E130" s="22"/>
+      <c r="F130" s="23"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E131" s="22"/>
+      <c r="F131" s="23"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E132" s="22"/>
+      <c r="F132" s="23"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="16"/>
+      <c r="F133" s="23">
         <v>7</v>
       </c>
-      <c r="G109" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E110" s="37"/>
-      <c r="F110" s="36"/>
-      <c r="G110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E111" s="37"/>
-      <c r="F111" s="36"/>
-      <c r="G111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="36"/>
-      <c r="G112" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E113" s="37"/>
-      <c r="F113" s="36"/>
-      <c r="G113" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="37"/>
-      <c r="F114" s="36"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="E115" s="37"/>
-      <c r="F115" s="36"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="36"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E117" s="37"/>
-      <c r="F117" s="36"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D118" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E118" s="37"/>
-      <c r="F118" s="36"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E119" s="37"/>
-      <c r="F119" s="36"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E120" s="37"/>
-      <c r="F120" s="36"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="E121" s="37"/>
-      <c r="F121" s="36"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E122" s="37"/>
-      <c r="F122" s="36"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="E123" s="37"/>
-      <c r="F123" s="36"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E124" s="37"/>
-      <c r="F124" s="36"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D125" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E125" s="37"/>
-      <c r="F125" s="36"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="E126" s="37"/>
-      <c r="F126" s="36"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E127" s="37"/>
-      <c r="F127" s="36"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E128" s="37"/>
-      <c r="F128" s="36"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D129" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="E129" s="37"/>
-      <c r="F129" s="36"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D130" s="33" t="s">
+      <c r="G133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E130" s="37"/>
-      <c r="F130" s="36"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B131" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D131" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E131" s="37"/>
-      <c r="F131" s="36"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132" s="33" t="s">
+      <c r="C134" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D134" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C132" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D132" s="33" t="s">
+      <c r="E134" s="16"/>
+      <c r="F134" s="23"/>
+      <c r="G134" t="s">
         <v>206</v>
       </c>
-      <c r="E132" s="33"/>
-      <c r="F132" s="36">
-        <v>7</v>
-      </c>
-      <c r="G132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D133" s="33" t="s">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D135" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E133" s="33"/>
-      <c r="F133" s="36"/>
-      <c r="G133" t="s">
+      <c r="E135" s="16"/>
+      <c r="F135" s="23"/>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D136" s="16" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D134" s="33" t="s">
+      <c r="E136" s="16"/>
+      <c r="F136" s="23"/>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D137" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E134" s="33"/>
-      <c r="F134" s="36"/>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D135" s="33" t="s">
+      <c r="E137" s="16"/>
+      <c r="F137" s="23"/>
+      <c r="G137" t="s">
         <v>210</v>
       </c>
-      <c r="E135" s="33"/>
-      <c r="F135" s="36"/>
-      <c r="G135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D136" s="33" t="s">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D138" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E136" s="33"/>
-      <c r="F136" s="36"/>
-      <c r="G136" t="s">
+      <c r="E138" s="16"/>
+      <c r="F138" s="23"/>
+      <c r="G138" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D137" s="33" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D139" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E137" s="33"/>
-      <c r="F137" s="36"/>
-      <c r="G137" t="s">
+      <c r="E139" s="16"/>
+      <c r="F139" s="23"/>
+      <c r="G139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="16" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D138" s="33" t="s">
+      <c r="E140" s="16"/>
+      <c r="F140" s="23"/>
+      <c r="G140" t="s">
         <v>215</v>
       </c>
-      <c r="E138" s="33"/>
-      <c r="F138" s="36"/>
-      <c r="G138" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D139" s="33" t="s">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D141" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E139" s="33"/>
-      <c r="F139" s="36"/>
-      <c r="G139" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E140" s="33"/>
-      <c r="F140" s="36"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="E109:E131"/>
-    <mergeCell ref="F109:F131"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="E49:E58"/>
-    <mergeCell ref="F49:F58"/>
-    <mergeCell ref="E59:E80"/>
-    <mergeCell ref="F59:F80"/>
-    <mergeCell ref="F82:F87"/>
-    <mergeCell ref="E88:E103"/>
-    <mergeCell ref="F88:F103"/>
+    <mergeCell ref="F45:F48"/>
     <mergeCell ref="F2:F16"/>
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="F17:F44"/>
     <mergeCell ref="E21:E34"/>
     <mergeCell ref="E35:E44"/>
-    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="F105:F109"/>
+    <mergeCell ref="E110:E132"/>
+    <mergeCell ref="F110:F132"/>
+    <mergeCell ref="F133:F141"/>
+    <mergeCell ref="E49:E58"/>
+    <mergeCell ref="F49:F58"/>
+    <mergeCell ref="E59:E81"/>
+    <mergeCell ref="F59:F81"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="E89:E104"/>
+    <mergeCell ref="F89:F104"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
